--- a/test_sc3.xlsx
+++ b/test_sc3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizrts/Documents/llm_eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4066EC3-799B-5D41-9472-834740ADE240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A1ECEA-DB41-B44F-87D4-6BFBD646780D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5560" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5560" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="169">
   <si>
     <t>Hard constraint</t>
   </si>
@@ -394,127 +394,139 @@
     <t>Would you recommend we visit the reptile house at the zoo?</t>
   </si>
   <si>
-    <t>My friend enjoys war documentaries, military strategy games, and visiting battlefields.</t>
-  </si>
-  <si>
-    <t>My colleague loves combat sports, tactical shooting games, and military reenactments.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys large dog breeds, obedience training, and dog shows.</t>
-  </si>
-  <si>
-    <t>My friend loves laser tag, competitive shooting, and action video games.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys hip-hop concerts, poetry slams, and underground music scenes.</t>
-  </si>
-  <si>
-    <t>My cousin is passionate about competitive swimming, water parks, and deep-sea diving.</t>
-  </si>
-  <si>
-    <t>My friend enjoys watching MMA fights, practicing parkour, and studying self-defense techniques.</t>
-  </si>
-  <si>
-    <t>My colleague loves attending music festivals, exploring crowded markets, and urban photography.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys shark diving, studying marine life, and underwater photography.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys surfing, beach volleyball, and organizing water sports competitions.</t>
-  </si>
-  <si>
-    <t>My friend enjoys exotic fruit tasting, attending tropical food festivals, and hosting gourmet parties.</t>
-  </si>
-  <si>
-    <t>My neighbor loves creating plant-based meals, trying meat alternatives, and attending innovative cooking workshops.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys wilderness survival, foraging for wild plants, and brewing herbal teas.</t>
-  </si>
-  <si>
-    <t>My friend loves trying rare tropical fruits, attending cultural food exchanges, and organizing tasting events.</t>
-  </si>
-  <si>
-    <t>My coworker enjoys cooking with edible flowers, creating colorful salads, and food photography.</t>
-  </si>
-  <si>
-    <t>My neighbor loves traditional Chinese cooking, sharing family recipes, and hosting holiday feasts.</t>
-  </si>
-  <si>
-    <t>My friend enjoys making artistic smoothie bowls, trying superfoods, and creating health food recipes.</t>
-  </si>
-  <si>
-    <t>My colleague loves growing citrus fruits, making artisanal marmalades, and participating in food competitions.</t>
-  </si>
-  <si>
-    <t>My friend enjoys creating unique chutneys, trying street foods, and experimenting with tangy flavors.</t>
-  </si>
-  <si>
-    <t>My coworker loves trying superfoods, making energy bars, and planning fitness meals.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys mountain climbing, paragliding, and organizing extreme sports events.</t>
-  </si>
-  <si>
-    <t>My partner loves attending major sporting events, high-energy crowds, and collecting sports memorabilia.</t>
-  </si>
-  <si>
-    <t>My friend enjoys EDM festivals, laser light shows, and large dance gatherings.</t>
-  </si>
-  <si>
-    <t>My colleague loves designing obstacle courses, endurance races, and team-building exercises.</t>
-  </si>
-  <si>
-    <t>My neighbor is passionate about international travel, immersive cultural experiences, and guided city tours.</t>
-  </si>
-  <si>
-    <t>My friend enjoys ice climbing, high-altitude expeditions, and extreme winter sports.</t>
-  </si>
-  <si>
-    <t>My sister loves long road trips, wilderness photography, and outdoor adventure planning.</t>
-  </si>
-  <si>
-    <t>My friend is fascinated by roller coaster design, virtual reality experiences, and amusement park innovations.</t>
-  </si>
-  <si>
-    <t>My colleague loves intricate handicrafts, pottery workshops, and learning traditional artisan skills.</t>
-  </si>
-  <si>
-    <t>My friend loves cave exploration, underground photography, and organizing spelunking expeditions.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys skydiving, mountain climbing, and designing treehouse accommodations.</t>
-  </si>
-  <si>
-    <t>My neighbor is passionate about studying spiders, creating artistic web photography, and organizing spider exhibitions.</t>
-  </si>
-  <si>
-    <t>My friend loves international backpacking, learning new languages, and collecting rare aircraft models.</t>
-  </si>
-  <si>
-    <t>My colleague enjoys running a dog daycare, participating in agility competitions, and organizing community pet fairs.</t>
-  </si>
-  <si>
-    <t>My friend loves motivational speaking, organizing large conferences, and hosting podcasts on personal development.</t>
-  </si>
-  <si>
-    <t>My neighbor enjoys getting elaborate tattoos, experimenting with body painting, and organizing body art festivals.</t>
-  </si>
-  <si>
-    <t>My colleague loves scuba diving, studying marine biology, and organizing ocean conservation campaigns.</t>
-  </si>
-  <si>
-    <t>My friend enjoys organizing music festivals, attending sporting events, and planning large community gatherings.</t>
-  </si>
-  <si>
-    <t>My neighbor is passionate about snake breeding, reptile photography, and organizing educational reptile shows.</t>
-  </si>
-  <si>
     <t>Soft Preferences Person 1</t>
   </si>
   <si>
     <t>Soft Preferences Person 2</t>
+  </si>
+  <si>
+    <t>I have severe PTSD from being caught in an avalanche</t>
+  </si>
+  <si>
+    <t>My partner loves skiing, heli-skiing, and winter mountain climbing.</t>
+  </si>
+  <si>
+    <t>My friend likes winter sports, alpine adventures, and challenging ski trips</t>
+  </si>
+  <si>
+    <t>Do you think we should book a backcountry skiing trip in the Alps?</t>
+  </si>
+  <si>
+    <t>My nephew likes historical sites, cultural museums, and urban exploration</t>
+  </si>
+  <si>
+    <t>My colleague likes war films, historical dramas, and thought-provoking cinema</t>
+  </si>
+  <si>
+    <t>My friend likes animal welfare, community service, and dog care</t>
+  </si>
+  <si>
+    <t>My sibling likes tactical games, laser tag, and competitive activities</t>
+  </si>
+  <si>
+    <t>My partner likes rap music, live concerts, and nostalgic performances</t>
+  </si>
+  <si>
+    <t>My cousin likes scuba diving, underwater exploration, and marine activities</t>
+  </si>
+  <si>
+    <t>My sister likes self-defense techniques, martial arts, and personal safety</t>
+  </si>
+  <si>
+    <t>My brother likes New Year's celebrations, crowded events, and city festivities</t>
+  </si>
+  <si>
+    <t>My nephew likes virtual reality experiences, marine life, and immersive simulations</t>
+  </si>
+  <si>
+    <t>My partner likes hiking, mountain scenery, and outdoor adventures</t>
+  </si>
+  <si>
+    <t>My sibling likes football, sports events, and supporting local teams</t>
+  </si>
+  <si>
+    <t>My cousin likes electronic dance music, rave culture, and vibrant parties</t>
+  </si>
+  <si>
+    <t>My sister likes obstacle courses, endurance events, and physical challenges</t>
+  </si>
+  <si>
+    <t>My brother likes guided tours, city exploration, and cultural attractions</t>
+  </si>
+  <si>
+    <t>My nephew likes winter sports, Swiss landscapes, and alpine adventures</t>
+  </si>
+  <si>
+    <t>My friend likes road trips, national parks, and cross-country exploration</t>
+  </si>
+  <si>
+    <t>My colleague likes virtual reality, theme park attractions, and immersive experiences</t>
+  </si>
+  <si>
+    <t>My partner likes water sports, beach activities, and trying new physical challenges</t>
+  </si>
+  <si>
+    <t>My sibling likes pottery, artistic expression, and hands-on crafts</t>
+  </si>
+  <si>
+    <t>My colleague likes vegan alternatives, food truck rallies, and plant-based cuisine</t>
+  </si>
+  <si>
+    <t>My partner likes foraging, wilderness teas, and outdoor camping</t>
+  </si>
+  <si>
+    <t>My sibling likes exotic fruits, office potlucks, and multicultural events</t>
+  </si>
+  <si>
+    <t>My cousin likes edible flowers, garden-to-table dining, and innovative salads</t>
+  </si>
+  <si>
+    <t>My sister likes Asian cuisine, Lunar New Year celebrations, and traditional foods</t>
+  </si>
+  <si>
+    <t>My brother likes tropical fruits, smoothie bowls, and themed café experiences</t>
+  </si>
+  <si>
+    <t>My nephew likes artisanal preserves, food competitions, and unique fruit varieties</t>
+  </si>
+  <si>
+    <t>My friend likes Indian street food, cultural festivals, and spicy chutneys</t>
+  </si>
+  <si>
+    <t>My colleague likes health foods, post-workout snacks, and nutritious puddings</t>
+  </si>
+  <si>
+    <t>My friend likes exotic fruits, food festivals, and Southeast Asian cuisine</t>
+  </si>
+  <si>
+    <t>My cousin likes cave exploration, underground adventures, and geological wonders</t>
+  </si>
+  <si>
+    <t>My sister likes skydiving, extreme sports, and adrenaline rushes</t>
+  </si>
+  <si>
+    <t>My brother likes exotic animals, educational exhibits, and arachnology</t>
+  </si>
+  <si>
+    <t>My nephew likes aerial tours, scenic flights, and natural wonders</t>
+  </si>
+  <si>
+    <t>My friend likes animal welfare, volunteering, and community service</t>
+  </si>
+  <si>
+    <t>My colleague likes public speaking, conferences, and professional development</t>
+  </si>
+  <si>
+    <t>My partner likes body art, creative expression, and permanent mementos</t>
+  </si>
+  <si>
+    <t>My sibling likes deep-sea fishing, marine life, and ocean adventures</t>
+  </si>
+  <si>
+    <t>My cousin likes live music, concert atmospheres, and popular artists</t>
+  </si>
+  <si>
+    <t>My sister likes reptiles, exotic animals, and educational zoo exhibits</t>
   </si>
 </sst>
 </file>
@@ -578,12 +590,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,31 +812,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34" style="4" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="4"/>
+    <col min="1" max="1" width="27.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -835,15 +845,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>124</v>
+      <c r="C2" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>85</v>
@@ -852,15 +862,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>125</v>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>86</v>
@@ -869,15 +879,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>126</v>
+      <c r="C4" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>87</v>
@@ -886,15 +896,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>127</v>
+      <c r="C5" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>88</v>
@@ -903,15 +913,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>128</v>
+      <c r="C6" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>89</v>
@@ -920,15 +930,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>129</v>
+      <c r="C7" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>90</v>
@@ -937,15 +947,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>130</v>
+      <c r="C8" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>91</v>
@@ -954,15 +964,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>131</v>
+      <c r="C9" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>92</v>
@@ -971,15 +981,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>132</v>
+      <c r="C10" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>93</v>
@@ -988,103 +998,104 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>147</v>
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>148</v>
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>149</v>
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -1092,16 +1103,16 @@
     </row>
     <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -1109,16 +1120,16 @@
     </row>
     <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -1126,16 +1137,16 @@
     </row>
     <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>133</v>
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
@@ -1143,16 +1154,16 @@
     </row>
     <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>152</v>
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -1160,33 +1171,33 @@
     </row>
     <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>134</v>
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>135</v>
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>25</v>
@@ -1194,16 +1205,16 @@
     </row>
     <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>136</v>
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>25</v>
@@ -1211,16 +1222,16 @@
     </row>
     <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>137</v>
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>25</v>
@@ -1228,16 +1239,16 @@
     </row>
     <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>25</v>
@@ -1245,16 +1256,16 @@
     </row>
     <row r="26" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>139</v>
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>25</v>
@@ -1262,16 +1273,16 @@
     </row>
     <row r="27" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>140</v>
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>25</v>
@@ -1279,16 +1290,16 @@
     </row>
     <row r="28" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>141</v>
+        <v>71</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>25</v>
@@ -1296,16 +1307,16 @@
     </row>
     <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>72</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>25</v>
@@ -1313,16 +1324,16 @@
     </row>
     <row r="30" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>143</v>
+        <v>73</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>25</v>
@@ -1330,33 +1341,33 @@
     </row>
     <row r="31" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>153</v>
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>154</v>
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>36</v>
@@ -1364,16 +1375,16 @@
     </row>
     <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>155</v>
+        <v>76</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>36</v>
@@ -1381,16 +1392,16 @@
     </row>
     <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>156</v>
+        <v>77</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>36</v>
@@ -1398,16 +1409,16 @@
     </row>
     <row r="35" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>157</v>
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>36</v>
@@ -1415,16 +1426,16 @@
     </row>
     <row r="36" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>36</v>
@@ -1432,16 +1443,16 @@
     </row>
     <row r="37" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>159</v>
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>36</v>
@@ -1449,16 +1460,16 @@
     </row>
     <row r="38" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>160</v>
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>36</v>
@@ -1466,16 +1477,16 @@
     </row>
     <row r="39" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>161</v>
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>36</v>
@@ -1483,26 +1494,37 @@
     </row>
     <row r="40" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>162</v>
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+    <row r="41" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
@@ -1941,6 +1963,12 @@
       <c r="B114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
